--- a/data/config/mapping.xlsx
+++ b/data/config/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valdemarlyngdal/Desktop/product_manager/data/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E993C4C-82FC-4A4E-AF7F-2AE07585529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742F3320-DA66-5A4A-B75C-DF1D2D83BF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17740" yWindow="-20600" windowWidth="35000" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16380" yWindow="2020" windowWidth="17820" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Column_Mappings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>attribute_name</t>
   </si>
@@ -117,12 +117,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>name_fr</t>
-  </si>
-  <si>
-    <t>desciption_fr</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>BQ</t>
   </si>
   <si>
-    <t>colour_group</t>
-  </si>
-  <si>
     <t>BU</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>CT</t>
   </si>
   <si>
-    <t>name_it</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -204,22 +192,88 @@
     <t>N</t>
   </si>
   <si>
-    <t>name_es</t>
-  </si>
-  <si>
-    <t>name_pt</t>
-  </si>
-  <si>
-    <t>desciption_it</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
-    <t>desciption_pt</t>
-  </si>
-  <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>contains_wood</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>wood_licence</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>batten_material</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>manufacturing_country</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>damp_rooms</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>title_fr</t>
+  </si>
+  <si>
+    <t>title_it</t>
+  </si>
+  <si>
+    <t>title_es</t>
+  </si>
+  <si>
+    <t>title_pt</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>description_fr</t>
+  </si>
+  <si>
+    <t>description_it</t>
+  </si>
+  <si>
+    <t>description_es</t>
+  </si>
+  <si>
+    <t>description_pt</t>
   </si>
 </sst>
 </file>
@@ -293,25 +347,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -616,22 +669,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -639,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -664,10 +717,10 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -684,13 +737,13 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -702,15 +755,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -724,290 +777,413 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>38</v>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
+      <c r="E14" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>43</v>
+      <c r="D15" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>45</v>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>29</v>
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>61</v>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
